--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,124 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26200" windowHeight="13620"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Pratik Mehta</t>
+  </si>
+  <si>
+    <t>Mountain View, CA, USA</t>
+  </si>
+  <si>
     <t>Current City / Country of Residence</t>
   </si>
   <si>
     <t>Time Zone</t>
   </si>
   <si>
+    <t>PST (GMT - 0700 hrs)</t>
+  </si>
+  <si>
     <t>Preferred Contact Email</t>
   </si>
   <si>
+    <t>pratik008@gmail.com</t>
+  </si>
+  <si>
+    <t>Machine Learning, Big Data, Data Science</t>
+  </si>
+  <si>
     <t>Interests</t>
   </si>
   <si>
     <t>Profession</t>
   </si>
   <si>
-    <t>Pratik Mehta</t>
-  </si>
-  <si>
-    <t>Mountain View, CA, USA</t>
-  </si>
-  <si>
-    <t>PST (GMT - 0700 hrs)</t>
-  </si>
-  <si>
-    <t>pratik008@gmail.com</t>
-  </si>
-  <si>
-    <t>Machine Learning, Big Data, Data Science</t>
-  </si>
-  <si>
     <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>Nabin Sharma</t>
-  </si>
-  <si>
-    <t>Providence, RI, USA</t>
-  </si>
-  <si>
-    <t>EST (GMT – 0400 hrs)</t>
-  </si>
-  <si>
-    <t>nabin.s.sharma@gmail.com</t>
-  </si>
-  <si>
-    <t>Data Science, Programming, DSP</t>
-  </si>
-  <si>
-    <t>Software Developer</t>
-  </si>
-  <si>
-    <t>Daniel Maurath</t>
-  </si>
-  <si>
-    <t>San Francisco, CA</t>
-  </si>
-  <si>
-    <t>dmaurath@gmail.com</t>
-  </si>
-  <si>
-    <t>Big Data, Predictive Analytics, Worforce Science</t>
-  </si>
-  <si>
-    <t>Graduate Student in I/O Psychology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,23 +92,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -303,16 +259,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -434,154 +394,71 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -591,15 +468,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -609,14 +480,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,78 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26200" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Current City / Country of Residence</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Preferred Contact Email</t>
+  </si>
+  <si>
+    <t>Interests</t>
+  </si>
+  <si>
+    <t>Profession</t>
+  </si>
+  <si>
     <t>Pratik Mehta</t>
   </si>
   <si>
     <t>Mountain View, CA, USA</t>
   </si>
   <si>
-    <t>Current City / Country of Residence</t>
-  </si>
-  <si>
-    <t>Time Zone</t>
-  </si>
-  <si>
     <t>PST (GMT - 0700 hrs)</t>
   </si>
   <si>
-    <t>Preferred Contact Email</t>
-  </si>
-  <si>
     <t>pratik008@gmail.com</t>
   </si>
   <si>
     <t>Machine Learning, Big Data, Data Science</t>
   </si>
   <si>
-    <t>Interests</t>
-  </si>
-  <si>
-    <t>Profession</t>
-  </si>
-  <si>
     <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Nabin Sharma</t>
+  </si>
+  <si>
+    <t>Providence, RI, USA</t>
+  </si>
+  <si>
+    <t>EST (GMT – 0400 hrs)</t>
+  </si>
+  <si>
+    <t>nabin.s.sharma@gmail.com</t>
+  </si>
+  <si>
+    <t>Data Science, Programming, DSP</t>
+  </si>
+  <si>
+    <t>Software Developer</t>
+  </si>
+  <si>
+    <t>Daniel Maurath</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>dmaurath@gmail.com</t>
+  </si>
+  <si>
+    <t>Big Data, Predictive Analytics, Worforce Science</t>
+  </si>
+  <si>
+    <t>Graduate Student in I/O Psychology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -92,25 +138,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -259,20 +303,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -394,71 +434,154 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -468,9 +591,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -480,8 +609,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26200" windowHeight="13620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -90,13 +90,73 @@
   </si>
   <si>
     <t>Graduate Student in I/O Psychology</t>
+  </si>
+  <si>
+    <t>Joon Lee</t>
+  </si>
+  <si>
+    <t>James Winquist</t>
+  </si>
+  <si>
+    <t>San Jose, CA</t>
+  </si>
+  <si>
+    <t>Seattle, WA</t>
+  </si>
+  <si>
+    <t>jawinquist@gmail.com</t>
+  </si>
+  <si>
+    <t>ljshope@stanford.kr</t>
+  </si>
+  <si>
+    <t>Game Developer</t>
+  </si>
+  <si>
+    <t>Sandy Ng</t>
+  </si>
+  <si>
+    <t>sng321@gmail.com</t>
+  </si>
+  <si>
+    <t>biomedical engineer</t>
+  </si>
+  <si>
+    <t>Martina Pugliese</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>CEST (GMT + 1 hour but with summer time)</t>
+  </si>
+  <si>
+    <t>m.letitbe@gmail.com</t>
+  </si>
+  <si>
+    <t>PhD student(Physics)</t>
+  </si>
+  <si>
+    <t>Lakshmi Baskar</t>
+  </si>
+  <si>
+    <t>Santa Clara, CA, USA</t>
+  </si>
+  <si>
+    <t>lakshmibaskar@gmail.com</t>
+  </si>
+  <si>
+    <t>Post Doctoral researcher</t>
+  </si>
+  <si>
+    <t>medical informatics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,6 +176,12 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -143,10 +209,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -155,6 +222,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -480,16 +552,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -529,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -549,7 +625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -567,6 +643,99 @@
       </c>
       <c r="F4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -574,9 +743,15 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4" display="mailto:jawinquist@gmail.com"/>
+    <hyperlink ref="D5" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
+    <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://class.coursera.org/datasci-001/forum/profile?user_id=618239"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -591,7 +766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -609,7 +784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>jawinquist@gmail.com</t>
   </si>
   <si>
-    <t>ljshope@stanford.kr</t>
-  </si>
-  <si>
     <t>Game Developer</t>
   </si>
   <si>
@@ -150,6 +147,18 @@
   </si>
   <si>
     <t>medical informatics</t>
+  </si>
+  <si>
+    <t>Longbo Qiao</t>
+  </si>
+  <si>
+    <t>Campbell,CA</t>
+  </si>
+  <si>
+    <t>otwick@gmail.com</t>
+  </si>
+  <si>
+    <t>eulerlee@naver.com</t>
   </si>
 </sst>
 </file>
@@ -552,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -676,12 +685,12 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -690,52 +699,69 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -749,9 +775,10 @@
     <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="A10" r:id="rId9" display="https://class.coursera.org/datasci-001/forum/profile?user_id=618239"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -107,6 +107,9 @@
     <t>jawinquist@gmail.com</t>
   </si>
   <si>
+    <t>ljshope@stanford.kr</t>
+  </si>
+  <si>
     <t>Game Developer</t>
   </si>
   <si>
@@ -147,18 +150,6 @@
   </si>
   <si>
     <t>medical informatics</t>
-  </si>
-  <si>
-    <t>Longbo Qiao</t>
-  </si>
-  <si>
-    <t>Campbell,CA</t>
-  </si>
-  <si>
-    <t>otwick@gmail.com</t>
-  </si>
-  <si>
-    <t>eulerlee@naver.com</t>
   </si>
 </sst>
 </file>
@@ -561,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +656,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -685,12 +676,12 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -699,69 +690,52 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
         <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -775,10 +749,9 @@
     <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="A10" r:id="rId9" display="https://class.coursera.org/datasci-001/forum/profile?user_id=618239"/>
-    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>jawinquist@gmail.com</t>
   </si>
   <si>
-    <t>ljshope@stanford.kr</t>
-  </si>
-  <si>
     <t>Game Developer</t>
   </si>
   <si>
@@ -150,6 +147,21 @@
   </si>
   <si>
     <t>medical informatics</t>
+  </si>
+  <si>
+    <t>Longbo Qiao</t>
+  </si>
+  <si>
+    <t>Campbell,CA</t>
+  </si>
+  <si>
+    <t>otwick@gmail.com</t>
+  </si>
+  <si>
+    <t>coding</t>
+  </si>
+  <si>
+    <t>eulerlee@naver.com</t>
   </si>
 </sst>
 </file>
@@ -552,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,7 +668,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -676,12 +688,12 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -690,52 +702,72 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -749,9 +781,10 @@
     <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="A10" r:id="rId9" display="https://class.coursera.org/datasci-001/forum/profile?user_id=618239"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -161,14 +161,14 @@
     <t>coding</t>
   </si>
   <si>
-    <t>eulerlee@naver.com</t>
+    <t>ljshope@stanford.kr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -188,12 +188,6 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -221,11 +215,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -564,16 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -746,27 +739,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -780,11 +768,10 @@
     <hyperlink ref="D7" r:id="rId6"/>
     <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://class.coursera.org/datasci-001/forum/profile?user_id=618239"/>
-    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
@@ -162,13 +162,28 @@
   </si>
   <si>
     <t>ljshope@stanford.kr</t>
+  </si>
+  <si>
+    <t>Sagar Khanna</t>
+  </si>
+  <si>
+    <t>Noida,UP,India</t>
+  </si>
+  <si>
+    <t>IST (GMT +0530hrs)</t>
+  </si>
+  <si>
+    <t>waves_sagar@yahoo.com</t>
+  </si>
+  <si>
+    <t>Data Science, Analytics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -192,6 +207,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -210,20 +232,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -557,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,6 +783,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
@@ -769,9 +814,10 @@
     <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId10"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,6 +800,11 @@
         <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -177,6 +177,33 @@
   </si>
   <si>
     <t>Data Science, Analytics</t>
+  </si>
+  <si>
+    <t>Liyuan Xu</t>
+  </si>
+  <si>
+    <t>Tokyo,Japan</t>
+  </si>
+  <si>
+    <t>JST(GMT + 0900 hr)</t>
+  </si>
+  <si>
+    <t>liyuan9988@gmail.com</t>
+  </si>
+  <si>
+    <t>Undergraduate student</t>
+  </si>
+  <si>
+    <t>Madhavi</t>
+  </si>
+  <si>
+    <t>Portland, OR</t>
+  </si>
+  <si>
+    <t>wmadhavi@gmail.com</t>
+  </si>
+  <si>
+    <t>clinical informaticist</t>
   </si>
 </sst>
 </file>
@@ -232,23 +259,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -582,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A12" sqref="A12:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,8 +835,39 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -820,9 +882,11 @@
     <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
     <hyperlink ref="D10" r:id="rId9"/>
     <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId11"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Preferred Contact Email</t>
   </si>
   <si>
-    <t>Interests</t>
-  </si>
-  <si>
     <t>Profession</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>pratik008@gmail.com</t>
   </si>
   <si>
-    <t>Machine Learning, Big Data, Data Science</t>
-  </si>
-  <si>
     <t>Software Engineer</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t>nabin.s.sharma@gmail.com</t>
   </si>
   <si>
-    <t>Data Science, Programming, DSP</t>
-  </si>
-  <si>
     <t>Software Developer</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
     <t>dmaurath@gmail.com</t>
   </si>
   <si>
-    <t>Big Data, Predictive Analytics, Worforce Science</t>
-  </si>
-  <si>
     <t>Graduate Student in I/O Psychology</t>
   </si>
   <si>
@@ -146,9 +134,6 @@
     <t>Post Doctoral researcher</t>
   </si>
   <si>
-    <t>medical informatics</t>
-  </si>
-  <si>
     <t>Longbo Qiao</t>
   </si>
   <si>
@@ -158,12 +143,6 @@
     <t>otwick@gmail.com</t>
   </si>
   <si>
-    <t>coding</t>
-  </si>
-  <si>
-    <t>ljshope@stanford.kr</t>
-  </si>
-  <si>
     <t>Sagar Khanna</t>
   </si>
   <si>
@@ -176,9 +155,6 @@
     <t>waves_sagar@yahoo.com</t>
   </si>
   <si>
-    <t>Data Science, Analytics</t>
-  </si>
-  <si>
     <t>Liyuan Xu</t>
   </si>
   <si>
@@ -204,6 +180,9 @@
   </si>
   <si>
     <t>clinical informaticist</t>
+  </si>
+  <si>
+    <t>eulerlee@naver.com</t>
   </si>
 </sst>
 </file>
@@ -613,20 +592,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
     <col min="2" max="2" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,232 +620,206 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>eulerlee@naver.com</t>
+  </si>
+  <si>
+    <t>Parija Parekh</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>GMT + 5:30</t>
+  </si>
+  <si>
+    <t>parija.Parekh@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -245,13 +257,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -592,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,6 +833,23 @@
       </c>
       <c r="E13" s="4" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -836,9 +866,10 @@
     <hyperlink ref="D11" r:id="rId10"/>
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId14"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>parija.Parekh@gmail.com</t>
+  </si>
+  <si>
+    <t>Adrish Sannyasi</t>
+  </si>
+  <si>
+    <t>Washington, DC</t>
+  </si>
+  <si>
+    <t>adrish.sannyasi@gmail.com</t>
+  </si>
+  <si>
+    <t>Data Analytics Software Architect</t>
   </si>
 </sst>
 </file>
@@ -605,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +862,23 @@
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -867,9 +896,10 @@
     <hyperlink ref="D12" r:id="rId11"/>
     <hyperlink ref="D13" r:id="rId12"/>
     <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId14"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId15"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +207,63 @@
   </si>
   <si>
     <t>Data Analytics Software Architect</t>
+  </si>
+  <si>
+    <t>Lorren Kay</t>
+  </si>
+  <si>
+    <t>lorrenk@gmail.com</t>
+  </si>
+  <si>
+    <t>Renu</t>
+  </si>
+  <si>
+    <t>rensrini@gmail.com</t>
+  </si>
+  <si>
+    <t>Tapan Thakur</t>
+  </si>
+  <si>
+    <t>East coast</t>
+  </si>
+  <si>
+    <t>Cupertino,CA</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>Madhavi Bharadwaj</t>
+  </si>
+  <si>
+    <t>Rong Zhao</t>
+  </si>
+  <si>
+    <t>Phoeniz,AZ</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>rongzhao@email.arizona.edu</t>
+  </si>
+  <si>
+    <t>graduate student</t>
+  </si>
+  <si>
+    <t>thakur.tpn@gmail.com</t>
+  </si>
+  <si>
+    <t>Jian Dong</t>
+  </si>
+  <si>
+    <t>Vancouver,Canada</t>
+  </si>
+  <si>
+    <t>dongjian@hotmail.com</t>
+  </si>
+  <si>
+    <t>Database Architect/Developer</t>
   </si>
 </sst>
 </file>
@@ -617,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,6 +767,9 @@
       <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -879,6 +939,90 @@
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -897,9 +1041,14 @@
     <hyperlink ref="D13" r:id="rId12"/>
     <hyperlink ref="D14" r:id="rId13"/>
     <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D20" r:id="rId17"/>
+    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D21" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId15"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId20"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
   <si>
     <t>Name</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Undergraduate student</t>
   </si>
   <si>
-    <t>Madhavi</t>
-  </si>
-  <si>
     <t>Portland, OR</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>Tapan Thakur</t>
   </si>
   <si>
-    <t>East coast</t>
-  </si>
-  <si>
     <t>Cupertino,CA</t>
   </si>
   <si>
@@ -264,13 +258,115 @@
   </si>
   <si>
     <t>Database Architect/Developer</t>
+  </si>
+  <si>
+    <t>Marielle Lange</t>
+  </si>
+  <si>
+    <t>Wellington, New Zealand</t>
+  </si>
+  <si>
+    <t>Freelance developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healthcare </t>
+  </si>
+  <si>
+    <t>Rakesh Mohan</t>
+  </si>
+  <si>
+    <t>Cherry Hill, NJ</t>
+  </si>
+  <si>
+    <t>Austin Luki Mueke</t>
+  </si>
+  <si>
+    <t>Nairobi, Kenya</t>
+  </si>
+  <si>
+    <t>amueke@gmail.com</t>
+  </si>
+  <si>
+    <t>medical statistics and computer science</t>
+  </si>
+  <si>
+    <t>ramotheonly</t>
+  </si>
+  <si>
+    <t>tthakur</t>
+  </si>
+  <si>
+    <t>adrish</t>
+  </si>
+  <si>
+    <t>amueke</t>
+  </si>
+  <si>
+    <t>lorren963</t>
+  </si>
+  <si>
+    <t>Dong-Jian</t>
+  </si>
+  <si>
+    <t>rongzhao</t>
+  </si>
+  <si>
+    <t>widged</t>
+  </si>
+  <si>
+    <t>wmadhavi</t>
+  </si>
+  <si>
+    <t>rsrinivas</t>
+  </si>
+  <si>
+    <t>parijaparekh</t>
+  </si>
+  <si>
+    <t>jimwinquist</t>
+  </si>
+  <si>
+    <t>liyuan9988</t>
+  </si>
+  <si>
+    <t>sagarkhanna</t>
+  </si>
+  <si>
+    <t>sparkroar</t>
+  </si>
+  <si>
+    <t>LakshmiDheviBaskar</t>
+  </si>
+  <si>
+    <t>martinapugliese</t>
+  </si>
+  <si>
+    <t>sng321</t>
+  </si>
+  <si>
+    <t>JoonL</t>
+  </si>
+  <si>
+    <t>dmaurath</t>
+  </si>
+  <si>
+    <t>pratik008</t>
+  </si>
+  <si>
+    <t>nssh</t>
+  </si>
+  <si>
+    <t>trello</t>
+  </si>
+  <si>
+    <t>Github</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,6 +397,32 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +448,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -334,6 +456,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -674,381 +802,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
       <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="E13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
+      <c r="G20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="B21" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
         <v>80</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-    <hyperlink ref="D4" r:id="rId3"/>
-    <hyperlink ref="D6" r:id="rId4" display="mailto:jawinquist@gmail.com"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D7" r:id="rId6"/>
-    <hyperlink ref="D8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
-    <hyperlink ref="D9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="D11" r:id="rId10"/>
-    <hyperlink ref="D12" r:id="rId11"/>
-    <hyperlink ref="D13" r:id="rId12"/>
-    <hyperlink ref="D14" r:id="rId13"/>
-    <hyperlink ref="D15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
-    <hyperlink ref="D17" r:id="rId16"/>
-    <hyperlink ref="D20" r:id="rId17"/>
-    <hyperlink ref="D18" r:id="rId18"/>
-    <hyperlink ref="D21" r:id="rId19"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4" display="mailto:jawinquist@gmail.com"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7" display="mailto:m.letitbe@gmail.com"/>
+    <hyperlink ref="F9" r:id="rId8" display="mailto:lakshmibaskar@gmail.com"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F19" r:id="rId17"/>
+    <hyperlink ref="F18" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://class.coursera.org/datasci-001/forum/profile?user_id=3056385"/>
+    <hyperlink ref="F23" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId20"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId22"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="125">
   <si>
     <t>Name</t>
   </si>
@@ -360,6 +360,42 @@
   </si>
   <si>
     <t>Github</t>
+  </si>
+  <si>
+    <t>Chakrapani Chitnis</t>
+  </si>
+  <si>
+    <t>Bret Spencer</t>
+  </si>
+  <si>
+    <t>Oleksi Derkatch</t>
+  </si>
+  <si>
+    <t>Iga Korneta</t>
+  </si>
+  <si>
+    <t>Scott McAhren</t>
+  </si>
+  <si>
+    <t>Ruohong Liu</t>
+  </si>
+  <si>
+    <t>Barbara Ewa Michalak</t>
+  </si>
+  <si>
+    <t>Darren Lin</t>
+  </si>
+  <si>
+    <t>dlin17</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>darrenlin17@gmail.com</t>
+  </si>
+  <si>
+    <t>Canadian government analyst in life science</t>
   </si>
 </sst>
 </file>
@@ -802,10 +838,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,6 +1309,23 @@
       </c>
       <c r="G23" s="8" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1298,9 +1351,10 @@
     <hyperlink ref="F20" r:id="rId19"/>
     <hyperlink ref="A21" r:id="rId20" display="https://class.coursera.org/datasci-001/forum/profile?user_id=3056385"/>
     <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F24" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId22"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId23"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1311,14 +1365,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://class.coursera.org/datasci-001/forum/profile?user_id=3367646"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://class.coursera.org/datasci-001/forum/profile?user_id=1167107"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://class.coursera.org/datasci-001/forum/profile?user_id=3299428"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://class.coursera.org/datasci-001/forum/profile?user_id=1701012"/>
+    <hyperlink ref="A5" r:id="rId5" display="https://class.coursera.org/datasci-001/forum/profile?user_id=428672"/>
+    <hyperlink ref="A6" r:id="rId6" display="https://class.coursera.org/datasci-001/forum/profile?user_id=2869192"/>
+    <hyperlink ref="A7" r:id="rId7" display="https://class.coursera.org/datasci-001/forum/profile?user_id=3226964"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId8"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
   <si>
     <t>Name</t>
   </si>
@@ -286,7 +285,7 @@
     <t>thakur.tpn@gmail.com</t>
   </si>
   <si>
-    <t>healthcare </t>
+    <t>healthcare</t>
   </si>
   <si>
     <t>Rong Zhao</t>
@@ -389,65 +388,72 @@
   </si>
   <si>
     <t>Barbara Ewa Michalak</t>
+  </si>
+  <si>
+    <t>Liang Tao</t>
+  </si>
+  <si>
+    <t>benuofi</t>
+  </si>
+  <si>
+    <t>Champaign,IL</t>
+  </si>
+  <si>
+    <t>CDT(GMT -0500hrs)</t>
+  </si>
+  <si>
+    <t>taoliang0227@gmail.com</t>
+  </si>
+  <si>
+    <t>student</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF222222"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,7 +465,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -467,104 +473,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="22">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 2" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal 3" xfId="22"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="20"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -623,234 +559,529 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.1348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8558139534884"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0325581395349"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.7348837209302"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85116279069768"/>
+    <col min="1" max="1" width="17.42578125"/>
+    <col min="2" max="2" width="14.140625"/>
+    <col min="3" max="3" width="14.85546875"/>
+    <col min="4" max="4" width="32.140625"/>
+    <col min="5" max="5" width="20"/>
+    <col min="6" max="6" width="24.7109375"/>
+    <col min="7" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -871,7 +1102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>57</v>
       </c>
@@ -892,7 +1123,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
@@ -913,7 +1144,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
@@ -934,7 +1165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
@@ -945,7 +1176,7 @@
       <c r="D15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -955,7 +1186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>78</v>
       </c>
@@ -966,7 +1197,7 @@
       <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -976,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>82</v>
       </c>
@@ -994,7 +1225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>86</v>
       </c>
@@ -1015,7 +1246,7 @@
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>90</v>
       </c>
@@ -1023,20 +1254,20 @@
         <v>91</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>96</v>
       </c>
@@ -1044,7 +1275,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="7"/>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1057,7 +1288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>101</v>
       </c>
@@ -1074,7 +1305,7 @@
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>105</v>
       </c>
@@ -1087,7 +1318,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>107</v>
       </c>
@@ -1106,151 +1337,149 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="pratik008@gmail.com" ref="F2" r:id="rId1"/>
-    <hyperlink display="Nabin Sharma" ref="A3" r:id="rId2"/>
-    <hyperlink display="dmaurath@gmail.com" ref="F4" r:id="rId3"/>
-    <hyperlink display="eulerlee@naver.com" ref="F5" r:id="rId4"/>
-    <hyperlink display="jawinquist@gmail.com" ref="F6" r:id="rId5"/>
-    <hyperlink display="sng321@gmail.com" ref="F7" r:id="rId6"/>
-    <hyperlink display="m.letitbe@gmail.com" ref="F8" r:id="rId7"/>
-    <hyperlink display="lakshmibaskar@gmail.com" ref="F9" r:id="rId8"/>
-    <hyperlink display="otwick@gmail.com" ref="F10" r:id="rId9"/>
-    <hyperlink display="waves_sagar@yahoo.com" ref="F11" r:id="rId10"/>
-    <hyperlink display="liyuan9988@gmail.com" ref="F12" r:id="rId11"/>
-    <hyperlink display="wmadhavi@gmail.com" ref="F13" r:id="rId12"/>
-    <hyperlink display="parija.Parekh@gmail.com" ref="F14" r:id="rId13"/>
-    <hyperlink display="adrish.sannyasi@gmail.com" ref="F15" r:id="rId14"/>
-    <hyperlink display="lorrenk@gmail.com" ref="F16" r:id="rId15"/>
-    <hyperlink display="rensrini@gmail.com" ref="F17" r:id="rId16"/>
-    <hyperlink display="thakur.tpn@gmail.com" ref="F18" r:id="rId17"/>
-    <hyperlink display="rongzhao@email.arizona.edu" ref="F19" r:id="rId18"/>
-    <hyperlink display="dongjian@hotmail.com" ref="F20" r:id="rId19"/>
-    <hyperlink display="Marielle Lange" ref="A21" r:id="rId20"/>
-    <hyperlink display="amueke@gmail.com" ref="F23" r:id="rId21"/>
-    <hyperlink display="darrenlin17@gmail.com" ref="F24" r:id="rId22"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F24" r:id="rId22"/>
+    <hyperlink ref="F25" r:id="rId23"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85116279069768"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Chakrapani Chitnis" ref="A1" r:id="rId1"/>
-    <hyperlink display="Bret Spencer" ref="A2" r:id="rId2"/>
-    <hyperlink display="Oleksi Derkatch" ref="A3" r:id="rId3"/>
-    <hyperlink display="Iga Korneta" ref="A4" r:id="rId4"/>
-    <hyperlink display="Scott McAhren" ref="A5" r:id="rId5"/>
-    <hyperlink display="Ruohong Liu" ref="A6" r:id="rId6"/>
-    <hyperlink display="Barbara Ewa Michalak" ref="A7" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.85116279069768"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>student</t>
+  </si>
+  <si>
+    <t>Chenchal Subraveti</t>
+  </si>
+  <si>
+    <t>chenchals</t>
+  </si>
+  <si>
+    <t>chenchals@gmail.com</t>
+  </si>
+  <si>
+    <t>Software Engineer, biophysicst, neuro scientist</t>
   </si>
 </sst>
 </file>
@@ -864,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,6 +1384,20 @@
       </c>
       <c r="G25" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1399,6 +1425,7 @@
     <hyperlink ref="F23" r:id="rId21"/>
     <hyperlink ref="F24" r:id="rId22"/>
     <hyperlink ref="F25" r:id="rId23"/>
+    <hyperlink ref="F26" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="383" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
   <si>
     <t>Name</t>
   </si>
@@ -369,6 +370,51 @@
     <t>Canadian government analyst in life science</t>
   </si>
   <si>
+    <t>Liang Tao</t>
+  </si>
+  <si>
+    <t>benuofi</t>
+  </si>
+  <si>
+    <t>Champaign,IL</t>
+  </si>
+  <si>
+    <t>CDT(GMT -0500hrs)</t>
+  </si>
+  <si>
+    <t>taoliang0227@gmail.com</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>Chenchal Subraveti</t>
+  </si>
+  <si>
+    <t>chenchals</t>
+  </si>
+  <si>
+    <t>chenchals@gmail.com</t>
+  </si>
+  <si>
+    <t>Software Engineer, biophysicst, neuro scientist</t>
+  </si>
+  <si>
+    <t>stephenLee</t>
+  </si>
+  <si>
+    <t>Da Lian,China</t>
+  </si>
+  <si>
+    <t>CST(GMT + 0800 hrs)</t>
+  </si>
+  <si>
+    <t>lxd.dlut@gmail.com</t>
+  </si>
+  <si>
+    <t>graduate student in computer science</t>
+  </si>
+  <si>
     <t>Chakrapani Chitnis</t>
   </si>
   <si>
@@ -388,84 +434,65 @@
   </si>
   <si>
     <t>Barbara Ewa Michalak</t>
-  </si>
-  <si>
-    <t>Liang Tao</t>
-  </si>
-  <si>
-    <t>benuofi</t>
-  </si>
-  <si>
-    <t>Champaign,IL</t>
-  </si>
-  <si>
-    <t>CDT(GMT -0500hrs)</t>
-  </si>
-  <si>
-    <t>taoliang0227@gmail.com</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>Chenchal Subraveti</t>
-  </si>
-  <si>
-    <t>chenchals</t>
-  </si>
-  <si>
-    <t>chenchals@gmail.com</t>
-  </si>
-  <si>
-    <t>Software Engineer, biophysicst, neuro scientist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+  </numFmts>
+  <fonts count="8">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="0"/>
       <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <u val="single"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00222222"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -477,7 +504,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -485,92 +512,114 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+  <cellStyleXfs count="22">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="10">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="TableStyleLight1" xfId="2"/>
+  <cellStyles count="8">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
+    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -578,522 +627,234 @@
       <rgbColor rgb="00993300"/>
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00222222"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="E27" activeCellId="0" pane="topLeft" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125"/>
-    <col min="2" max="2" width="14.140625"/>
-    <col min="3" max="3" width="14.85546875"/>
-    <col min="4" max="4" width="32.140625"/>
-    <col min="5" max="5" width="20"/>
-    <col min="6" max="6" width="24.7109375"/>
-    <col min="7" max="1025" width="8.85546875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8745098039216"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="0" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -1114,399 +875,438 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+      <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+      <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+      <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+      <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+      <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+      <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+      <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="0" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+      <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+      <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+      <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+      <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="11" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+      <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="0" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="0" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="25">
+      <c r="A25" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="26">
+      <c r="A26" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D25" t="s">
+      <c r="G26" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="27">
+      <c r="B27" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="D27" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E27" s="0" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="F27" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="G27" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F12" r:id="rId11"/>
-    <hyperlink ref="F13" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="F17" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F19" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="A21" r:id="rId20"/>
-    <hyperlink ref="F23" r:id="rId21"/>
-    <hyperlink ref="F24" r:id="rId22"/>
-    <hyperlink ref="F25" r:id="rId23"/>
-    <hyperlink ref="F26" r:id="rId24"/>
+    <hyperlink display="pratik008@gmail.com" ref="F2" r:id="rId1"/>
+    <hyperlink display="Nabin Sharma" ref="A3" r:id="rId2"/>
+    <hyperlink display="dmaurath@gmail.com" ref="F4" r:id="rId3"/>
+    <hyperlink display="eulerlee@naver.com" ref="F5" r:id="rId4"/>
+    <hyperlink display="jawinquist@gmail.com" ref="F6" r:id="rId5"/>
+    <hyperlink display="sng321@gmail.com" ref="F7" r:id="rId6"/>
+    <hyperlink display="m.letitbe@gmail.com" ref="F8" r:id="rId7"/>
+    <hyperlink display="lakshmibaskar@gmail.com" ref="F9" r:id="rId8"/>
+    <hyperlink display="otwick@gmail.com" ref="F10" r:id="rId9"/>
+    <hyperlink display="waves_sagar@yahoo.com" ref="F11" r:id="rId10"/>
+    <hyperlink display="liyuan9988@gmail.com" ref="F12" r:id="rId11"/>
+    <hyperlink display="wmadhavi@gmail.com" ref="F13" r:id="rId12"/>
+    <hyperlink display="parija.Parekh@gmail.com" ref="F14" r:id="rId13"/>
+    <hyperlink display="adrish.sannyasi@gmail.com" ref="F15" r:id="rId14"/>
+    <hyperlink display="lorrenk@gmail.com" ref="F16" r:id="rId15"/>
+    <hyperlink display="rensrini@gmail.com" ref="F17" r:id="rId16"/>
+    <hyperlink display="thakur.tpn@gmail.com" ref="F18" r:id="rId17"/>
+    <hyperlink display="rongzhao@email.arizona.edu" ref="F19" r:id="rId18"/>
+    <hyperlink display="dongjian@hotmail.com" ref="F20" r:id="rId19"/>
+    <hyperlink display="Marielle Lange" ref="A21" r:id="rId20"/>
+    <hyperlink display="amueke@gmail.com" ref="F23" r:id="rId21"/>
+    <hyperlink display="darrenlin17@gmail.com" ref="F24" r:id="rId22"/>
+    <hyperlink display="taoliang0227@gmail.com" ref="F25" r:id="rId23"/>
+    <hyperlink display="chenchals@gmail.com" ref="F26" r:id="rId24"/>
+    <hyperlink display="lxd.dlut@gmail.com" ref="F27" r:id="rId25"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
       <c r="A4" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
       <c r="A5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
       <c r="A6" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
       <c r="A7" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A4" r:id="rId4"/>
-    <hyperlink ref="A5" r:id="rId5"/>
-    <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="A7" r:id="rId7"/>
+    <hyperlink display="Chakrapani Chitnis" ref="A1" r:id="rId1"/>
+    <hyperlink display="Bret Spencer" ref="A2" r:id="rId2"/>
+    <hyperlink display="Oleksi Derkatch" ref="A3" r:id="rId3"/>
+    <hyperlink display="Iga Korneta" ref="A4" r:id="rId4"/>
+    <hyperlink display="Scott McAhren" ref="A5" r:id="rId5"/>
+    <hyperlink display="Ruohong Liu" ref="A6" r:id="rId6"/>
+    <hyperlink display="Barbara Ewa Michalak" ref="A7" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.85546875"/>
+    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.90980392156863"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="383" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="383"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -434,65 +433,66 @@
   </si>
   <si>
     <t>Barbara Ewa Michalak</t>
+  </si>
+  <si>
+    <t>Stephen Lee</t>
+  </si>
+  <si>
+    <t>Son Nghiem</t>
+  </si>
+  <si>
+    <t>hongson.nghiem@gmail.com</t>
+  </si>
+  <si>
+    <t>health economist</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
       <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00222222"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -504,7 +504,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -512,64 +512,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="21"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="TableStyleLight1" xfId="20"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="21"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -628,233 +600,529 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00222222"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E27" activeCellId="0" pane="topLeft" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.2392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.3490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.8745098039216"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="0" width="8.90980392156863"/>
+    <col min="1" max="1" width="17.5703125"/>
+    <col min="2" max="2" width="14.28515625"/>
+    <col min="3" max="3" width="15"/>
+    <col min="4" max="4" width="32.28515625"/>
+    <col min="5" max="5" width="20.140625"/>
+    <col min="6" max="6" width="24.85546875"/>
+    <col min="7" max="257" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="11">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -875,7 +1143,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="12">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
@@ -896,7 +1164,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="13">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -917,7 +1185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>68</v>
       </c>
@@ -938,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="15">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>73</v>
       </c>
@@ -949,7 +1217,7 @@
       <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -959,7 +1227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="16">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>78</v>
       </c>
@@ -970,7 +1238,7 @@
       <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -980,7 +1248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="17">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -998,7 +1266,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="18">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>86</v>
       </c>
@@ -1019,7 +1287,7 @@
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="19">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>90</v>
       </c>
@@ -1027,20 +1295,20 @@
         <v>91</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>93</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="20">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>96</v>
       </c>
@@ -1048,7 +1316,7 @@
         <v>97</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1061,7 +1329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="21">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>101</v>
       </c>
@@ -1078,7 +1346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="22">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>105</v>
       </c>
@@ -1091,7 +1359,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="23">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>107</v>
       </c>
@@ -1110,44 +1378,44 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="24">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>114</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>123</v>
       </c>
@@ -1157,156 +1425,154 @@
       <c r="F26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16.4" outlineLevel="0" r="27">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="pratik008@gmail.com" ref="F2" r:id="rId1"/>
-    <hyperlink display="Nabin Sharma" ref="A3" r:id="rId2"/>
-    <hyperlink display="dmaurath@gmail.com" ref="F4" r:id="rId3"/>
-    <hyperlink display="eulerlee@naver.com" ref="F5" r:id="rId4"/>
-    <hyperlink display="jawinquist@gmail.com" ref="F6" r:id="rId5"/>
-    <hyperlink display="sng321@gmail.com" ref="F7" r:id="rId6"/>
-    <hyperlink display="m.letitbe@gmail.com" ref="F8" r:id="rId7"/>
-    <hyperlink display="lakshmibaskar@gmail.com" ref="F9" r:id="rId8"/>
-    <hyperlink display="otwick@gmail.com" ref="F10" r:id="rId9"/>
-    <hyperlink display="waves_sagar@yahoo.com" ref="F11" r:id="rId10"/>
-    <hyperlink display="liyuan9988@gmail.com" ref="F12" r:id="rId11"/>
-    <hyperlink display="wmadhavi@gmail.com" ref="F13" r:id="rId12"/>
-    <hyperlink display="parija.Parekh@gmail.com" ref="F14" r:id="rId13"/>
-    <hyperlink display="adrish.sannyasi@gmail.com" ref="F15" r:id="rId14"/>
-    <hyperlink display="lorrenk@gmail.com" ref="F16" r:id="rId15"/>
-    <hyperlink display="rensrini@gmail.com" ref="F17" r:id="rId16"/>
-    <hyperlink display="thakur.tpn@gmail.com" ref="F18" r:id="rId17"/>
-    <hyperlink display="rongzhao@email.arizona.edu" ref="F19" r:id="rId18"/>
-    <hyperlink display="dongjian@hotmail.com" ref="F20" r:id="rId19"/>
-    <hyperlink display="Marielle Lange" ref="A21" r:id="rId20"/>
-    <hyperlink display="amueke@gmail.com" ref="F23" r:id="rId21"/>
-    <hyperlink display="darrenlin17@gmail.com" ref="F24" r:id="rId22"/>
-    <hyperlink display="taoliang0227@gmail.com" ref="F25" r:id="rId23"/>
-    <hyperlink display="chenchals@gmail.com" ref="F26" r:id="rId24"/>
-    <hyperlink display="lxd.dlut@gmail.com" ref="F27" r:id="rId25"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
+    <hyperlink ref="F12" r:id="rId11"/>
+    <hyperlink ref="F13" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F24" r:id="rId22"/>
+    <hyperlink ref="F25" r:id="rId23"/>
+    <hyperlink ref="F26" r:id="rId24"/>
+    <hyperlink ref="F27" r:id="rId25"/>
+    <hyperlink ref="F28" r:id="rId26"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.90980392156863"/>
+    <col min="1" max="257" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
+    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
+    <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="3">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
+    <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="5">
+    <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="6">
+    <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="7">
+    <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="Chakrapani Chitnis" ref="A1" r:id="rId1"/>
-    <hyperlink display="Bret Spencer" ref="A2" r:id="rId2"/>
-    <hyperlink display="Oleksi Derkatch" ref="A3" r:id="rId3"/>
-    <hyperlink display="Iga Korneta" ref="A4" r:id="rId4"/>
-    <hyperlink display="Scott McAhren" ref="A5" r:id="rId5"/>
-    <hyperlink display="Ruohong Liu" ref="A6" r:id="rId6"/>
-    <hyperlink display="Barbara Ewa Michalak" ref="A7" r:id="rId7"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="A5" r:id="rId5"/>
+    <hyperlink ref="A6" r:id="rId6"/>
+    <hyperlink ref="A7" r:id="rId7"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="0" width="8.90980392156863"/>
+    <col min="1" max="257" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>health economist</t>
+  </si>
+  <si>
+    <t>Kratik Malladi</t>
+  </si>
+  <si>
+    <t>ktik</t>
+  </si>
+  <si>
+    <t>kartik.malladi@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -518,7 +527,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -533,6 +542,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -905,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,6 +1472,20 @@
       </c>
       <c r="G28" s="12" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1492,6 +1516,7 @@
     <hyperlink ref="F26" r:id="rId24"/>
     <hyperlink ref="F27" r:id="rId25"/>
     <hyperlink ref="F28" r:id="rId26"/>
+    <hyperlink ref="F29" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
   <si>
     <t>Name</t>
   </si>
@@ -454,13 +454,22 @@
   </si>
   <si>
     <t>kartik.malladi@gmail.com</t>
+  </si>
+  <si>
+    <t>hongsonnghiem</t>
+  </si>
+  <si>
+    <t>Brisbane, Australia</t>
+  </si>
+  <si>
+    <t>UTC+10:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -503,6 +512,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -527,7 +542,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -543,6 +558,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -918,7 +935,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,10 +1480,16 @@
       <c r="A28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="15" t="s">
+        <v>146</v>
+      </c>
       <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="F28" s="13" t="s">
         <v>141</v>
       </c>
@@ -1519,7 +1542,7 @@
     <hyperlink ref="F29" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
   <si>
     <t>Name</t>
   </si>
@@ -463,6 +463,42 @@
   </si>
   <si>
     <t>UTC+10:00</t>
+  </si>
+  <si>
+    <t>Shivprakash Swami</t>
+  </si>
+  <si>
+    <t>shivswami</t>
+  </si>
+  <si>
+    <t>Pune, India</t>
+  </si>
+  <si>
+    <t>IST</t>
+  </si>
+  <si>
+    <t>shivswami@gmail.com</t>
+  </si>
+  <si>
+    <t>Software Solution Architect</t>
+  </si>
+  <si>
+    <t>web80863</t>
+  </si>
+  <si>
+    <t>scottmcahren</t>
+  </si>
+  <si>
+    <t>Indianapolis, USA</t>
+  </si>
+  <si>
+    <t>eastern</t>
+  </si>
+  <si>
+    <t>scott.mcahren@gmail.com</t>
+  </si>
+  <si>
+    <t>research scientist</t>
   </si>
 </sst>
 </file>
@@ -932,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,6 +1545,49 @@
       </c>
       <c r="G29" s="14" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1540,9 +1619,11 @@
     <hyperlink ref="F27" r:id="rId25"/>
     <hyperlink ref="F28" r:id="rId26"/>
     <hyperlink ref="F29" r:id="rId27"/>
+    <hyperlink ref="F30" r:id="rId28"/>
+    <hyperlink ref="F31" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId28"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="171">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>San Jose, CA</t>
   </si>
   <si>
-    <t>eulerlee@naver.com</t>
-  </si>
-  <si>
     <t>Engineer</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
     <t>lorrenk@gmail.com</t>
   </si>
   <si>
-    <t>Renu</t>
-  </si>
-  <si>
     <t>rsrinivas</t>
   </si>
   <si>
@@ -499,6 +493,43 @@
   </si>
   <si>
     <t>research scientist</t>
+  </si>
+  <si>
+    <t>pratikmehta8</t>
+  </si>
+  <si>
+    <t>Joon8</t>
+  </si>
+  <si>
+    <t>tapanthakur</t>
+  </si>
+  <si>
+    <t>austinmueke</t>
+  </si>
+  <si>
+    <t>sonnghiem</t>
+  </si>
+  <si>
+    <t>ljshope@stanford.kr</t>
+  </si>
+  <si>
+    <t>stephenlee</t>
+  </si>
+  <si>
+    <t>Renu Srinivas</t>
+  </si>
+  <si>
+    <t>Hugo Toledo</t>
+  </si>
+  <si>
+    <t>hugotoledo</t>
+  </si>
+  <si>
+    <t>hugotoledo@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Intelligence Architect and CTO Chateaux Software_x000D_
+</t>
   </si>
 </sst>
 </file>
@@ -578,7 +609,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -596,6 +627,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -968,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1049,9 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
@@ -1072,45 +1109,51 @@
       <c r="B5" t="s">
         <v>24</v>
       </c>
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1119,67 +1162,70 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -1187,20 +1233,20 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>12</v>
@@ -1208,62 +1254,64 @@
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
@@ -1271,41 +1319,41 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>12</v>
@@ -1313,30 +1361,34 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1344,77 +1396,77 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>93</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8"/>
@@ -1424,124 +1476,131 @@
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
         <v>114</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="E25" t="s">
         <v>118</v>
       </c>
-      <c r="D25" t="s">
+      <c r="F25" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E25" t="s">
+      <c r="G25" t="s">
         <v>120</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="G26" t="s">
         <v>124</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" t="s">
         <v>127</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>128</v>
       </c>
-      <c r="E27" t="s">
+      <c r="G27" t="s">
         <v>129</v>
-      </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>143</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>145</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>12</v>
@@ -1549,45 +1608,65 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C30" t="s">
+        <v>148</v>
+      </c>
+      <c r="D30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="E30" t="s">
         <v>150</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" t="s">
         <v>155</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E31" t="s">
         <v>156</v>
       </c>
-      <c r="D31" t="s">
+      <c r="F31" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>160</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1621,9 +1700,10 @@
     <hyperlink ref="F29" r:id="rId27"/>
     <hyperlink ref="F30" r:id="rId28"/>
     <hyperlink ref="F31" r:id="rId29"/>
+    <hyperlink ref="C17" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId30"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -1642,37 +1722,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="177">
   <si>
     <t>Name</t>
   </si>
@@ -530,6 +530,24 @@
   <si>
     <t xml:space="preserve">Business Intelligence Architect and CTO Chateaux Software_x000D_
 </t>
+  </si>
+  <si>
+    <t>Omkar Vedpathak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omkarv </t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>UK Time(GMT + 0100 hrs)</t>
+  </si>
+  <si>
+    <t>omkarv@gmail.com</t>
+  </si>
+  <si>
+    <t>Research (Electronics &amp; Software) Engineer at Jaguar Land Rover</t>
   </si>
 </sst>
 </file>
@@ -627,9 +645,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1002,10 +1018,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1683,29 @@
       </c>
       <c r="G32" s="17" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" t="s">
+        <v>175</v>
+      </c>
+      <c r="G33" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Members.xlsx
+++ b/Project_Members.xlsx
@@ -510,9 +510,6 @@
     <t>sonnghiem</t>
   </si>
   <si>
-    <t>ljshope@stanford.kr</t>
-  </si>
-  <si>
     <t>stephenlee</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Research (Electronics &amp; Software) Engineer at Jaguar Land Rover</t>
+  </si>
+  <si>
+    <t>eulerlee@naver.com</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>81</v>
@@ -1570,7 +1570,7 @@
         <v>125</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D27" t="s">
         <v>126</v>
@@ -1670,42 +1670,42 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
         <v>167</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F32" t="s">
         <v>168</v>
       </c>
-      <c r="C32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" t="s">
         <v>171</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" t="s">
         <v>172</v>
       </c>
-      <c r="C33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>173</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>174</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>175</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
